--- a/BDD/registros/personas.xlsx
+++ b/BDD/registros/personas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9732"/>
+    <workbookView windowWidth="23040" windowHeight="9287"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>codperso</t>
   </si>
@@ -38,6 +38,15 @@
   </si>
   <si>
     <t>celularPersona</t>
+  </si>
+  <si>
+    <t>pathFotoPersona</t>
+  </si>
+  <si>
+    <t>createdAt</t>
+  </si>
+  <si>
+    <t>lastUpdate</t>
   </si>
   <si>
     <r>
@@ -241,6 +250,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Av. Per</t>
     </r>
     <r>
@@ -285,7 +300,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +344,21 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -801,133 +831,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -938,9 +968,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -959,17 +986,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1504,10 +1534,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1519,9 +1549,10 @@
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="51.4444444444444" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="10" max="11" width="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1546,407 +1577,565 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12"/>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" ht="19.2" spans="1:9">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
+    <row r="2" ht="19.2" spans="1:11">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="5">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4">
         <v>32915</v>
       </c>
-      <c r="F2" s="6" t="str">
+      <c r="F2" s="5" t="str">
         <f>D2&amp;"@gmail.com"</f>
         <v>Diego@gmail.com</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="8">
+      <c r="G2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="7">
         <v>72458936</v>
       </c>
-      <c r="I2" s="12"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="12">
+        <f ca="1">NOW()</f>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="K2" s="12">
+        <f ca="1">NOW()</f>
+        <v>45257.9813310185</v>
+      </c>
     </row>
-    <row r="3" ht="19.2" spans="1:9">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
+    <row r="3" ht="19.2" spans="1:11">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="6" t="str">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="5" t="str">
         <f t="shared" ref="F3:F16" si="0">D3&amp;"@gmail.com"</f>
         <v>Juan@gmail.com</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="8">
+      <c r="G3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="7">
         <v>16385027</v>
       </c>
-      <c r="I3" s="12"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="12">
+        <f ca="1" t="shared" ref="J3:J16" si="1">NOW()</f>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="K3" s="12">
+        <f ca="1" t="shared" ref="K3:K16" si="2">NOW()</f>
+        <v>45257.9813310185</v>
+      </c>
     </row>
-    <row r="4" ht="19.2" spans="1:9">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
+    <row r="4" ht="19.2" spans="1:11">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="6" t="str">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Marta@gmail.com</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="8">
+      <c r="G4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="7">
         <v>90724615</v>
       </c>
-      <c r="I4" s="12"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="12">
+        <f ca="1" t="shared" si="1"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="K4" s="12">
+        <f ca="1" t="shared" si="2"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
-    <row r="5" ht="19.2" spans="1:9">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
+    <row r="5" ht="19.2" spans="1:11">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="6" t="str">
+        <v>27</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Roberto@gmail.com</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="8">
+      <c r="G5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="7">
         <v>53271894</v>
       </c>
-      <c r="I5" s="12"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="12">
+        <f ca="1" t="shared" si="1"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="K5" s="12">
+        <f ca="1" t="shared" si="2"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
-    <row r="6" ht="19.2" spans="1:9">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>28</v>
+    <row r="6" ht="19.2" spans="1:11">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="5">
+        <v>32</v>
+      </c>
+      <c r="E6" s="4">
         <v>31052</v>
       </c>
-      <c r="F6" s="6" t="str">
+      <c r="F6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Jesus@gmail.com</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="8">
+      <c r="G6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="7">
         <v>64829517</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="12">
+        <f ca="1" t="shared" si="1"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="K6" s="12">
+        <f ca="1" t="shared" si="2"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
-    <row r="7" ht="19.2" spans="1:9">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>32</v>
+    <row r="7" ht="19.2" spans="1:11">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="6" t="str">
+        <v>36</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Esteban@gmail.com</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="8">
+      <c r="G7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="7">
         <v>21573498</v>
       </c>
-      <c r="I7" s="12"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="12">
+        <f ca="1" t="shared" si="1"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="K7" s="12">
+        <f ca="1" t="shared" si="2"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
-    <row r="8" ht="19.2" spans="1:9">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>37</v>
+    <row r="8" ht="19.2" spans="1:11">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="6" t="str">
+        <v>41</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Juana@gmail.com</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="8">
+      <c r="G8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="7">
         <v>78930142</v>
       </c>
-      <c r="I8" s="12"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="12">
+        <f ca="1" t="shared" si="1"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="K8" s="12">
+        <f ca="1" t="shared" si="2"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
-    <row r="9" ht="19.2" spans="1:9">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>42</v>
+    <row r="9" ht="19.2" spans="1:11">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="6" t="str">
+        <v>46</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Alejandra@gmail.com</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="G9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="7">
         <v>36487029</v>
       </c>
-      <c r="I9" s="12"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="12">
+        <f ca="1" t="shared" si="1"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="K9" s="12">
+        <f ca="1" t="shared" si="2"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
-    <row r="10" ht="19.2" spans="1:9">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>47</v>
+    <row r="10" ht="19.2" spans="1:11">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="10">
+        <v>51</v>
+      </c>
+      <c r="E10" s="8">
         <v>33666</v>
       </c>
-      <c r="F10" s="6" t="str">
+      <c r="F10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Fabiana@gmail.com</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="8">
+      <c r="G10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="7">
         <v>47261938</v>
       </c>
-      <c r="I10" s="12"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="12">
+        <f ca="1" t="shared" si="1"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="K10" s="12">
+        <f ca="1" t="shared" si="2"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
-    <row r="11" ht="19.2" spans="1:9">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>51</v>
+    <row r="11" ht="19.2" spans="1:11">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="6" t="str">
+        <v>55</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Fabiani@gmail.com</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="8">
+      <c r="G11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="7">
         <v>95813426</v>
       </c>
-      <c r="I11" s="12"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="12">
+        <f ca="1" t="shared" si="1"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="K11" s="12">
+        <f ca="1" t="shared" si="2"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
-    <row r="12" ht="19.2" spans="1:9">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>56</v>
+    <row r="12" ht="19.2" spans="1:11">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="10">
+        <v>60</v>
+      </c>
+      <c r="E12" s="8">
         <v>36774</v>
       </c>
-      <c r="F12" s="6" t="str">
+      <c r="F12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Rafael@gmail.com</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="8">
+      <c r="G12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="7">
         <v>37648591</v>
       </c>
-      <c r="I12" s="12"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="12">
+        <f ca="1" t="shared" si="1"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="K12" s="12">
+        <f ca="1" t="shared" si="2"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
-    <row r="13" ht="19.2" spans="1:9">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>60</v>
+    <row r="13" ht="19.2" spans="1:11">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="6" t="str">
+        <v>64</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Lorenza@gmail.com</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="8">
+      <c r="G13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="7">
         <v>50192834</v>
       </c>
-      <c r="I13" s="12"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="12">
+        <f ca="1" t="shared" si="1"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="K13" s="12">
+        <f ca="1" t="shared" si="2"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
-    <row r="14" ht="19.2" spans="1:9">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>65</v>
+    <row r="14" ht="19.2" spans="1:11">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="10">
+        <v>69</v>
+      </c>
+      <c r="E14" s="8">
         <v>35623</v>
       </c>
-      <c r="F14" s="6" t="str">
+      <c r="F14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Valentina@gmail.com</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="8">
+      <c r="G14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="7">
         <v>68231745</v>
       </c>
-      <c r="I14" s="12"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="12">
+        <f ca="1" t="shared" si="1"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="K14" s="12">
+        <f ca="1" t="shared" si="2"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
-    <row r="15" ht="19.2" spans="1:9">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>69</v>
+    <row r="15" ht="19.2" spans="1:11">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="6" t="str">
+        <v>73</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Axel@gmail.com</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="8">
+      <c r="G15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="7">
         <v>24908317</v>
       </c>
-      <c r="I15" s="12"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="12">
+        <f ca="1" t="shared" si="1"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="K15" s="12">
+        <f ca="1" t="shared" si="2"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
-    <row r="16" ht="19.2" spans="1:9">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>74</v>
+    <row r="16" ht="19.2" spans="1:11">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="5">
+        <v>78</v>
+      </c>
+      <c r="E16" s="4">
         <v>31057</v>
       </c>
-      <c r="F16" s="6" t="str">
+      <c r="F16" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Andy@gmail.com</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="8">
+      <c r="G16" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="7">
         <v>83572614</v>
       </c>
-      <c r="I16" s="12"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="12">
+        <f ca="1" t="shared" si="1"/>
+        <v>45257.9813310185</v>
+      </c>
+      <c r="K16" s="12">
+        <f ca="1" t="shared" si="2"/>
+        <v>45257.9813310185</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
